--- a/ANNEX TO APPENDIX 3 - ICER calculation .xlsx
+++ b/ANNEX TO APPENDIX 3 - ICER calculation .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lausdeus Chiegboka\Documents\ox docs\PLACEMENT PROJECT\MAIN\THESIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chieg\OneDrive\Documents\THESIS\THESIS\for paper ICER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196220B-3205-40C5-AE39-624B2A1CD328}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="659" documentId="13_ncr:1_{5750A38D-F258-4872-9975-886A11E42067}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{39767AE7-AC97-4719-AA7C-FCE11C41284A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{58BC804E-29B6-4C7F-AF24-DBE7ACB3C72B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{58BC804E-29B6-4C7F-AF24-DBE7ACB3C72B}"/>
   </bookViews>
   <sheets>
     <sheet name="Undiscounted ICERs" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,19 @@
     <sheet name="6% disc" sheetId="7" r:id="rId5"/>
     <sheet name="6% ICER" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Undiscounted ICERs'!$F$4:$P$11</definedName>
+  </definedNames>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -59,12 +68,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{6FC6AF77-3171-44E3-AAC8-A6CEB1D1DEB2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lausdeus Chiegboka:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+#</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{49D0DBF3-1DC6-41AF-98AF-0271F3F832AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lausdeus Chiegboka:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+#</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{2AEE048B-97BF-4BEE-B27F-DA0659BC9D9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lausdeus Chiegboka:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+#-  absolutely dominated</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
   <si>
     <t>Intervention option</t>
   </si>
@@ -184,13 +265,55 @@
   </si>
   <si>
     <t>3% DISCOUNTING CALCULATION</t>
+  </si>
+  <si>
+    <t>ANNEX A TO APPENDIX 3</t>
+  </si>
+  <si>
+    <t>μm</t>
+  </si>
+  <si>
+    <t>σ1</t>
+  </si>
+  <si>
+    <t>ρ</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <t>χ</t>
+  </si>
+  <si>
+    <t>δ1</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>δ2</t>
+  </si>
+  <si>
+    <t>δ3</t>
+  </si>
+  <si>
+    <t>κ</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +348,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,12 +390,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,6 +417,1374 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2822475305177126E-2"/>
+          <c:y val="4.5314109165808442E-2"/>
+          <c:w val="0.87571183515451645"/>
+          <c:h val="0.78052142040432382"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>-20%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Undiscounted ICERs'!$E$12:$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>μm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>σ1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ρ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>amp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ω</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>χ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>δ1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>v</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>δ2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>δ3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>κ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Undiscounted ICERs'!$E$13:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.7130654887708889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5488273373398442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8212930072059272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.56032363057982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4693083132249729</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6304386432250038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5387580278677291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6585225398840624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2251404144647653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3048509658175451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.064735275032387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8971395260526265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.050781461617639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDA6-4831-A7E7-F3277405F642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>-10%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Undiscounted ICERs'!$E$12:$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>μm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>σ1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ρ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>amp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ω</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>χ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>δ1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>v</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>δ2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>δ3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>κ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Undiscounted ICERs'!$E$14:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.7130654887708889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6398957966941801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7990723723409747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.134865336697111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.592342038450731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6716540486649851</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6260095787390725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6847834528758732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4667703722770291</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4873516280912398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.789827529542888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.795421002790567</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.832966344899557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDA6-4831-A7E7-F3277405F642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Undiscounted ICERs'!$E$12:$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>μm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>σ1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ρ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>amp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ω</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>χ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>δ1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>v</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>δ2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>δ3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>κ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Undiscounted ICERs'!$E$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.7130554839936067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7735174556726214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6274289729872002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2949741929101091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8331514228181476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7540741056795284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7998332079873727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.741147147081847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.959853550528937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.953934366993458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0472016065792085</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6449858871218428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2318540843989199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDA6-4831-A7E7-F3277405F642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>20%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Undiscounted ICERs'!$E$12:$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>μm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>σ1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ρ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>amp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ω</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>χ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>δ1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>v</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>δ2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>δ3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>κ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Undiscounted ICERs'!$E$17:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.7130654887708889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8240126533863332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5415727899742162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8797818782192142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9518835764989255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7946494004941105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8856535640875993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.76734065031107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.204120054239915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.190196669624321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.210851840743371</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5866339206176381</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.47291014299334377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDA6-4831-A7E7-F3277405F642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="45"/>
+        <c:overlap val="100"/>
+        <c:axId val="845732344"/>
+        <c:axId val="845733328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="845732344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845733328"/>
+        <c:crossesAt val="9.7130654889999981"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="845733328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>ICER</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1" baseline="0"/>
+                  <a:t> (US$)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44264369685301663"/>
+              <c:y val="0.90492211130663247"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845732344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85345538669758214"/>
+          <c:y val="0.17250208811437187"/>
+          <c:w val="9.7885818902883642E-2"/>
+          <c:h val="0.39907360704525735"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1190624</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00386108-AB44-44ED-A05F-B06F3C8353FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,35 +2085,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396A21CD-CAA8-4663-A10E-EDACEE51AAE9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="E2:P12"/>
+  <dimension ref="B3:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="4" width="4.453125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="P2">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="4" spans="5:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,18 +2152,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>257892090</v>
+      <c r="F5" s="6">
+        <v>17505043</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>118291114</v>
+      <c r="H5" s="6">
+        <v>6062903</v>
       </c>
       <c r="I5" s="1">
         <v>31050674</v>
@@ -656,19 +2175,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>43635868</v>
+      <c r="F6" s="6">
+        <v>17518099</v>
       </c>
       <c r="G6">
         <f>F6-F5</f>
-        <v>-214256222</v>
-      </c>
-      <c r="H6">
-        <v>17386784</v>
+        <v>13056</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5193358</v>
       </c>
       <c r="I6" s="1">
         <v>4563926</v>
@@ -678,7 +2197,7 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:M9" si="0">H5-H6</f>
-        <v>100904330</v>
+        <v>869545</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -690,30 +2209,30 @@
       </c>
       <c r="N6">
         <f>G6/K6</f>
-        <v>-2.1233600381668456</v>
+        <v>1.501474909291641E-2</v>
       </c>
       <c r="O6">
         <f>G6/L6</f>
-        <v>-8.0891856561628472</v>
+        <v>4.9292574535764069E-4</v>
       </c>
       <c r="P6">
         <f>G6/M6</f>
-        <v>-106.43664533359033</v>
-      </c>
-    </row>
-    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
+        <v>6.4858645807511503E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>34560576</v>
+      <c r="F7" s="6">
+        <v>24772639</v>
       </c>
       <c r="G7">
         <f>F7-F6</f>
-        <v>-9075292</v>
-      </c>
-      <c r="H7">
-        <v>9520329</v>
+        <v>7254540</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4950645</v>
       </c>
       <c r="I7" s="1">
         <v>2499020</v>
@@ -723,7 +2242,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>7866455</v>
+        <v>242713</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -735,30 +2254,30 @@
       </c>
       <c r="N7">
         <f>G7/K7</f>
-        <v>-1.1536698550999147</v>
+        <v>29.889375517586615</v>
       </c>
       <c r="O7">
         <f>G7/L7</f>
-        <v>-4.3950145914632435</v>
+        <v>3.5132543563726388</v>
       </c>
       <c r="P7">
         <f>G7/M7</f>
-        <v>-57.829454795707697</v>
-      </c>
-    </row>
-    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
+        <v>46.227283154487296</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>21268296</v>
+      <c r="F8" s="6">
+        <v>16438204</v>
       </c>
       <c r="G8">
         <f>F8-F7</f>
-        <v>-13292280</v>
-      </c>
-      <c r="H8">
-        <v>6944177</v>
+        <v>-8334435</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4689185</v>
       </c>
       <c r="I8" s="1">
         <v>1822802</v>
@@ -768,7 +2287,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2576152</v>
+        <v>261460</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
@@ -780,30 +2299,30 @@
       </c>
       <c r="N8">
         <f>G8/K8</f>
-        <v>-5.15974212701735</v>
+        <v>-31.876520309033886</v>
       </c>
       <c r="O8">
         <f>G8/L8</f>
-        <v>-19.656797068401019</v>
+        <v>-12.325071204848141</v>
       </c>
       <c r="P8">
         <f>G8/M8</f>
-        <v>-258.63989259237638</v>
-      </c>
-    </row>
-    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
+        <v>-162.17062634989202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>29035038</v>
+      <c r="F9" s="6">
+        <v>25601367</v>
       </c>
       <c r="G9">
         <f>F9-F8</f>
-        <v>7766742</v>
-      </c>
-      <c r="H9">
-        <v>6144559</v>
+        <v>9163163</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4541513</v>
       </c>
       <c r="I9" s="1">
         <v>1612909</v>
@@ -813,7 +2332,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>799618</v>
+        <v>147672</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -825,31 +2344,252 @@
       </c>
       <c r="N9">
         <f>G9/K9</f>
-        <v>9.7130654887708889</v>
+        <v>62.050781461617639</v>
       </c>
       <c r="O9">
         <f>G9/L9</f>
-        <v>37.003339796944154</v>
+        <v>43.6563534753422</v>
       </c>
       <c r="P9">
         <f>G9/M9</f>
-        <v>486.88202106318954</v>
-      </c>
-    </row>
-    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+        <v>574.42095035105319</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="5:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="E13">
+        <v>9.7130654887708889</v>
+      </c>
+      <c r="F13">
+        <v>9.5488273373398442</v>
+      </c>
+      <c r="G13">
+        <v>9.8212930072059272</v>
+      </c>
+      <c r="H13">
+        <v>10.56032363057982</v>
+      </c>
+      <c r="I13">
+        <v>9.4693083132249729</v>
+      </c>
+      <c r="J13">
+        <v>9.6304386432250038</v>
+      </c>
+      <c r="K13">
+        <v>9.5387580278677291</v>
+      </c>
+      <c r="L13">
+        <v>7.6585225398840624</v>
+      </c>
+      <c r="M13">
+        <v>7.2251404144647653</v>
+      </c>
+      <c r="N13">
+        <v>5.3048509658175451</v>
+      </c>
+      <c r="O13">
+        <v>20.064735275032387</v>
+      </c>
+      <c r="P13">
+        <v>9.8971395260526265</v>
+      </c>
+      <c r="Q13">
+        <v>62.050781461617639</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="E14">
+        <v>9.7130654887708889</v>
+      </c>
+      <c r="F14">
+        <v>9.6398957966941801</v>
+      </c>
+      <c r="G14">
+        <v>9.7990723723409747</v>
+      </c>
+      <c r="H14">
+        <v>10.134865336697111</v>
+      </c>
+      <c r="I14">
+        <v>9.592342038450731</v>
+      </c>
+      <c r="J14">
+        <v>9.6716540486649851</v>
+      </c>
+      <c r="K14">
+        <v>9.6260095787390725</v>
+      </c>
+      <c r="L14">
+        <v>8.6847834528758732</v>
+      </c>
+      <c r="M14">
+        <v>8.4667703722770291</v>
+      </c>
+      <c r="N14">
+        <v>7.4873516280912398</v>
+      </c>
+      <c r="O14">
+        <v>14.789827529542888</v>
+      </c>
+      <c r="P14">
+        <v>9.795421002790567</v>
+      </c>
+      <c r="Q14">
+        <v>30.832966344899557</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15">
         <v>0</v>
+      </c>
+      <c r="E15">
+        <v>9.7130654889999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>9.7130554839936067</v>
+      </c>
+      <c r="F16">
+        <v>9.7735174556726214</v>
+      </c>
+      <c r="G16">
+        <v>9.6274289729872002</v>
+      </c>
+      <c r="H16">
+        <v>9.2949741929101091</v>
+      </c>
+      <c r="I16">
+        <v>9.8331514228181476</v>
+      </c>
+      <c r="J16">
+        <v>9.7540741056795284</v>
+      </c>
+      <c r="K16">
+        <v>9.7998332079873727</v>
+      </c>
+      <c r="L16">
+        <v>10.741147147081847</v>
+      </c>
+      <c r="M16">
+        <v>10.959853550528937</v>
+      </c>
+      <c r="N16">
+        <v>11.953934366993458</v>
+      </c>
+      <c r="O16">
+        <v>5.0472016065792085</v>
+      </c>
+      <c r="P16">
+        <v>9.6449858871218428</v>
+      </c>
+      <c r="Q16">
+        <v>-1.2318540843989199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>9.7130654887708889</v>
+      </c>
+      <c r="F17">
+        <v>9.8240126533863332</v>
+      </c>
+      <c r="G17">
+        <v>9.5415727899742162</v>
+      </c>
+      <c r="H17">
+        <v>8.8797818782192142</v>
+      </c>
+      <c r="I17">
+        <v>9.9518835764989255</v>
+      </c>
+      <c r="J17">
+        <v>9.7946494004941105</v>
+      </c>
+      <c r="K17">
+        <v>9.8856535640875993</v>
+      </c>
+      <c r="L17">
+        <v>11.76734065031107</v>
+      </c>
+      <c r="M17">
+        <v>12.204120054239915</v>
+      </c>
+      <c r="N17">
+        <v>14.190196669624321</v>
+      </c>
+      <c r="O17">
+        <v>1.210851840743371</v>
+      </c>
+      <c r="P17">
+        <v>9.5866339206176381</v>
+      </c>
+      <c r="Q17">
+        <v>-0.47291014299334377</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -858,19 +2598,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>0.03</v>
       </c>
@@ -878,12 +2618,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -921,7 +2661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -968,7 +2708,7 @@
         <v>90660288</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +2755,7 @@
         <v>13325522</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +2802,7 @@
         <v>7296539</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +2849,7 @@
         <v>5322133</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1156,17 +2896,17 @@
         <v>4709292</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +2953,7 @@
         <v>23797755</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +3000,7 @@
         <v>3497870</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +3047,7 @@
         <v>1915291</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +3094,7 @@
         <v>1397026</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1401,17 +3141,17 @@
         <v>1236161</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1458,7 +3198,7 @@
         <v>1808628</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +3245,7 @@
         <v>265838</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1552,7 +3292,7 @@
         <v>145562</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +3339,7 @@
         <v>106174</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1646,17 +3386,17 @@
         <v>93950</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +3444,7 @@
         <v>191895936</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +3492,7 @@
         <v>32469183</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1800,7 +3540,7 @@
         <v>25716314</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +3588,7 @@
         <v>15825610</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1911,28 +3651,28 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +3710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1987,7 +3727,7 @@
         <v>1808628</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +3772,7 @@
         <v>-103.33669999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2077,7 +3817,7 @@
         <v>-56.144799999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2122,7 +3862,7 @@
         <v>-251.1096</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2181,23 +3921,23 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +3975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +4040,7 @@
         <v>-79.198899999999995</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2345,7 +4085,7 @@
         <v>-43.030500000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2390,7 +4130,7 @@
         <v>-192.45240000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2449,14 +4189,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0.06</v>
       </c>
@@ -2464,7 +4204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -2472,7 +4212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +4250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +4298,7 @@
         <v>144005597</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2606,7 +4346,7 @@
         <v>24366040</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2654,7 +4394,7 @@
         <v>19298445</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2702,7 +4442,7 @@
         <v>11876106</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2750,12 +4490,12 @@
         <v>16213013</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -2771,7 +4511,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +4549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2856,7 +4596,7 @@
         <v>70016328</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2903,7 +4643,7 @@
         <v>10291209</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2950,7 +4690,7 @@
         <v>5635068</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2997,7 +4737,7 @@
         <v>4110247</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -3057,28 +4797,28 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3116,7 +4856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -3127,7 +4867,7 @@
         <v>70016328</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -3154,7 +4894,7 @@
         <v>-2.0032000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +4921,7 @@
         <v>-1.0884</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3208,7 +4948,7 @@
         <v>-4.8677000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
